--- a/assets/datamentah.xlsx
+++ b/assets/datamentah.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bank" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="clear" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="178">
   <si>
     <t>id_bank</t>
   </si>
@@ -555,13 +555,22 @@
   </si>
   <si>
     <t>stok_gerai</t>
+  </si>
+  <si>
+    <t>ERVAN PANGESTU</t>
+  </si>
+  <si>
+    <t>ERVAN_PANGESTU</t>
+  </si>
+  <si>
+    <t>ervanpangestu@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +603,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -637,10 +654,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,8 +684,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -946,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -963,7 +983,7 @@
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1006,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -999,8 +1022,15 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="str">
+        <f>"("&amp;A2&amp;",'"&amp;B2&amp;"',"&amp;C2&amp;",'"&amp;D2&amp;"','"&amp;E2&amp;"',"&amp;F2&amp;",'"&amp;G2&amp;"'),"</f>
+        <v>(1,'PT BANK RAKYAT INDONESIA (PERSERO) Tbk',2510269264,'','RAJA VAPOR',1,''),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1043,15 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="str">
+        <f>"("&amp;A3&amp;",'"&amp;B3&amp;"',"&amp;C3&amp;",'"&amp;D3&amp;"','"&amp;E3&amp;"',"&amp;F3&amp;",'"&amp;G3&amp;"'),"</f>
+        <v>(2,'PT BANK MANDIRI (PERSERO) Tbk',52997777,'','RAJA VAPOR',1,''),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1027,8 +1064,15 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="str">
+        <f t="shared" ref="H2:H7" si="0">"("&amp;A4&amp;",'"&amp;B4&amp;"',"&amp;C4&amp;",'"&amp;D4&amp;"','"&amp;E4&amp;"',"&amp;F4&amp;",'"&amp;G4&amp;"'),"</f>
+        <v>(3,'PT BANK NEGARA INDONESIA (PERSERO) Tbk',5709506,'','RAJA VAPOR',1,''),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1041,8 +1085,15 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'PT BANK TABUNGAN NEGARA (PERSERO) Tbk',26533555,'','RAJA VAPOR',1,''),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,8 +1106,15 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'PT BANK CENTRAL ASIA Tbk',23588000,'','RAJA VAPOR',1,''),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1068,6 +1126,10 @@
       </c>
       <c r="F7">
         <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'PT BANK SYARIAH INDONESIA Tbk *)',3450227,'','RAJA VAPOR',1,''),</v>
       </c>
     </row>
   </sheetData>
@@ -1090,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1104,7 +1166,7 @@
     <col min="4" max="4" width="124.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1118,7 +1180,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -1128,8 +1193,15 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="str">
+        <f>"("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"'),"</f>
+        <v>(1,'RAJA VAPOR gebog','gebog','Jl. Raya Jurang, Krasak, Jurang, Kec. Gebog, Kabupaten Kudus, Jawa Tengah 59333'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -1139,8 +1211,15 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0">"("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"'),"</f>
+        <v>(2,'RAJA VAPOR kaliwungu','KALIWUNGU','bangjo RS.yakis / RS.islam, Jl. Raya Kudus - Jepara meter barat No.200, Garung Lor, Kec. Kaliwungu, Kabupaten Kudus, Jawa Tengah 59333'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -1150,8 +1229,15 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'RAJA VAPOR Kudus','KUDUS KOTA','Jl. Tanjung No.14-16, Nganguk, Kramat, Kec. Kota Kudus, Kabupaten Kudus, Jawa Tengah 59312'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -1161,8 +1247,15 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'RAJA VAPOR PURWOGONDO','PURWOGONDO','Sendang, Kec. Kalinyamatan, Kabupaten Jepara, Jawa Tengah 59462'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -1171,6 +1264,10 @@
       </c>
       <c r="D6" t="s">
         <v>28</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'RAJA VAPOR LORAM','WERGU LORAM WETAN','Jl. Patimura, Loram Wetan Krajan, Loram Wetan, Kec. Jati, Kabupaten Kudus, Jawa Tengah 59344'),</v>
       </c>
     </row>
   </sheetData>
@@ -1180,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1199,7 +1296,7 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
@@ -1228,38 +1325,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1">
-      <c r="A2" s="8">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>72</v>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="D2" s="9">
         <v>1234</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="9">
         <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>62895433553641</v>
+        <v>62895433553670</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="I2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4" t="str">
+        <f t="shared" ref="J2" si="0">"("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"',"&amp;F2&amp;",'"&amp;G2&amp;"','"&amp;H2&amp;"',"&amp;I2&amp;"),"</f>
+        <v>(1,'ERVAN PANGESTU','ERVAN_PANGESTU','1234','ervanpangestu@gmail.com',1,'62895433553670','0000-00-00 00:00:28',1),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>44</v>
@@ -1285,10 +1386,14 @@
       <c r="I3" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4" t="str">
+        <f t="shared" ref="J3:J30" si="1">"("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"',"&amp;F3&amp;",'"&amp;G3&amp;"','"&amp;H3&amp;"',"&amp;I3&amp;"),"</f>
+        <v>(2,'YUS PRIYADI','YUS_PRIYADI','1234','yuspriyadi@gmail.com',2,'62895433553643','0000-00-00 00:00:01',1),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>45</v>
@@ -1314,10 +1419,14 @@
       <c r="I4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="10">
-        <v>5</v>
+      <c r="J4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(3,'YUSSINTHA AMRULLAH SUGIARTO','YUSSINTHA_AMRULLAH_SUGIARTO','1234','yussinthaamrullahsugiarto@gmail.com',3,'62895433553644','0000-00-00 00:00:02',1),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8">
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>46</v>
@@ -1343,10 +1452,14 @@
       <c r="I5" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(4,'MUHAMMADUN','MUHAMMADUN','1234','muhammadun@gmail.com',3,'62895433553645','0000-00-00 00:00:03',1),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>47</v>
@@ -1372,10 +1485,14 @@
       <c r="I6" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(5,'HERU SETIAWAN','HERU_SETIAWAN','1234','herusetiawan@gmail.com',3,'62895433553646','0000-00-00 00:00:04',1),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>48</v>
@@ -1401,10 +1518,14 @@
       <c r="I7" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10">
-        <v>8</v>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(6,'HARYANTO','HARYANTO','1234','haryanto@gmail.com',3,'62895433553647','0000-00-00 00:00:05',1),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8">
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>49</v>
@@ -1430,10 +1551,14 @@
       <c r="I8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(7,'BETTA ARISANDI','BETTA_ARISANDI','1234','bettaarisandi@gmail.com',3,'62895433553648','0000-00-00 00:00:06',1),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>50</v>
@@ -1459,10 +1584,14 @@
       <c r="I9" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(8,'AHMAD SETIONO','AHMAD_SETIONO','1234','ahmadsetiono@gmail.com',4,'62895433553649','0000-00-00 00:00:07',1),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>51</v>
@@ -1488,10 +1617,14 @@
       <c r="I10" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="10">
-        <v>11</v>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(9,'FERRY ANJAR PRIYANTO','FERRY_ANJAR_PRIYANTO','1234','ferryanjarpriyanto@gmail.com',4,'62895433553650','0000-00-00 00:00:08',1),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8">
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>52</v>
@@ -1517,10 +1650,14 @@
       <c r="I11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,'SUPRIYANTO','SUPRIYANTO','1234','supriyanto@gmail.com',4,'62895433553651','0000-00-00 00:00:09',1),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>53</v>
@@ -1546,10 +1683,14 @@
       <c r="I12" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(11,'MUHAMMAD NAFI'UDIN','MUHAMMAD_NAFI'UDIN','1234','muhammadnafi'udin@gmail.com',4,'62895433553652','0000-00-00 00:00:10',1),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>54</v>
@@ -1575,10 +1716,14 @@
       <c r="I13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="10">
-        <v>14</v>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(12,'RIDWAN NAWAWI EKO PRASETYO','RIDWAN_NAWAWI_EKO_PRASETYO','1234','ridwannawawiekoprasetyo@gmail.com',4,'62895433553653','0000-00-00 00:00:11',1),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8">
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>55</v>
@@ -1604,10 +1749,14 @@
       <c r="I14" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(13,'ROZIKAN','ROZIKAN','1234','rozikan@gmail.com',4,'62895433553654','0000-00-00 00:00:12',1),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>56</v>
@@ -1633,10 +1782,14 @@
       <c r="I15" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(14,'EDI PRASETYA','EDI_PRASETYA','1234','ediprasetya@gmail.com',4,'62895433553655','0000-00-00 00:00:13',1),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>57</v>
@@ -1662,10 +1815,14 @@
       <c r="I16" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="10">
-        <v>17</v>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(15,'AMPRI ISROKHA','AMPRI_ISROKHA','1234','ampriisrokha@gmail.com',4,'62895433553656','0000-00-00 00:00:14',1),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="8">
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>58</v>
@@ -1691,10 +1848,14 @@
       <c r="I17" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(16,'ALI MURTADHO','ALI_MURTADHO','1234','alimurtadho@gmail.com',4,'62895433553657','0000-00-00 00:00:15',1),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>59</v>
@@ -1720,10 +1881,14 @@
       <c r="I18" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(17,'HENI LUSIANA','HENI_LUSIANA','1234','henilusiana@gmail.com',4,'62895433553658','0000-00-00 00:00:16',1),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>60</v>
@@ -1749,10 +1914,14 @@
       <c r="I19" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="10">
-        <v>20</v>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(18,'NITA MARIA NINGSIH','NITA_MARIA_NINGSIH','1234','nitamarianingsih@gmail.com',4,'62895433553659','0000-00-00 00:00:17',1),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="8">
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>61</v>
@@ -1778,10 +1947,14 @@
       <c r="I20" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(19,'PUJIATI','PUJIATI','1234','pujiati@gmail.com',4,'62895433553660','0000-00-00 00:00:18',1),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>62</v>
@@ -1807,10 +1980,14 @@
       <c r="I21" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(20,'ATMOJO EKO WIBOWO','ATMOJO_EKO_WIBOWO','1234','atmojoekowibowo@gmail.com',4,'62895433553661','0000-00-00 00:00:19',1),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>63</v>
@@ -1836,10 +2013,14 @@
       <c r="I22" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="10">
-        <v>23</v>
+      <c r="J22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(21,'SYAIFUL ROKHMAN','SYAIFUL_ROKHMAN','1234','syaifulrokhman@gmail.com',4,'62895433553662','0000-00-00 00:00:20',1),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="8">
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>64</v>
@@ -1865,10 +2046,14 @@
       <c r="I23" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(22,'ANIS SETYANINGSIH','ANIS_SETYANINGSIH','1234','anissetyaningsih@gmail.com',4,'62895433553663','0000-00-00 00:00:21',1),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>65</v>
@@ -1894,10 +2079,14 @@
       <c r="I24" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(23,'SULASTRI','SULASTRI','1234','sulastri@gmail.com',4,'62895433553664','0000-00-00 00:00:22',1),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>66</v>
@@ -1923,10 +2112,14 @@
       <c r="I25" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="10">
-        <v>26</v>
+      <c r="J25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(24,'ARI ARDIANSYAH','ARI_ARDIANSYAH','1234','ariardiansyah@gmail.com',4,'62895433553665','0000-00-00 00:00:23',1),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="8">
+        <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>67</v>
@@ -1952,10 +2145,14 @@
       <c r="I26" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(25,'MUSTAJIB RIYADI','MUSTAJIB_RIYADI','1234','mustajibriyadi@gmail.com',4,'62895433553666','0000-00-00 00:00:24',1),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>68</v>
@@ -1981,10 +2178,14 @@
       <c r="I27" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(26,'SUKO CAHYONO','SUKO_CAHYONO','1234','sukocahyono@gmail.com',4,'62895433553667','0000-00-00 00:00:25',1),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>69</v>
@@ -2010,10 +2211,14 @@
       <c r="I28" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10">
-        <v>29</v>
+      <c r="J28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(27,'MUHAMMAD RIFAI','MUHAMMAD_RIFAI','1234','muhammadrifai@gmail.com',4,'62895433553668','0000-00-00 00:00:26',1),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="8">
+        <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>70</v>
@@ -2039,10 +2244,14 @@
       <c r="I29" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(28,'SUMIJAN','SUMIJAN','1234','sumijan@gmail.com',4,'62895433553669','0000-00-00 00:00:27',1),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>71</v>
@@ -2068,19 +2277,59 @@
       <c r="I30" s="8">
         <v>1</v>
       </c>
+      <c r="J30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(29,'ABDULLAH','ABDULLAH','1234','abdullah@gmail.com',4,'62895433553670','0000-00-00 00:00:28',1),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1234</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>62895433553641</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <f>"("&amp;A31&amp;",'"&amp;B31&amp;"','"&amp;C31&amp;"','"&amp;D31&amp;"','"&amp;E31&amp;"',"&amp;F31&amp;",'"&amp;G31&amp;"','"&amp;H31&amp;"',"&amp;I31&amp;"),"</f>
+        <v>(30,'Muhamad Sholikhudin','Muhamad_Sholikhudin','1234','muhamadsholikhudin@gmail.com',1,'62895433553641','0000-00-00 00:00:00',1),</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2089,9 +2338,10 @@
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -2105,7 +2355,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2113,13 +2363,17 @@
         <v>3</v>
       </c>
       <c r="C2" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="str">
+        <f>"("&amp;A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;"),"</f>
+        <v>(1,3,2,10),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2127,27 +2381,35 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E51" si="0">"("&amp;A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;"),"</f>
+        <v>(2,3,3,10),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" s="11">
+        <v>4</v>
       </c>
       <c r="D4" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,3,4,10),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2155,13 +2417,17 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,3,5,10),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2169,13 +2435,17 @@
         <v>3</v>
       </c>
       <c r="C6" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,3,6,10),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2183,27 +2453,35 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,3,7,10),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>7</v>
+      <c r="C8" s="11">
+        <v>8</v>
       </c>
       <c r="D8" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,3,8,10),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2211,13 +2489,17 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,3,9,10),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2225,13 +2507,17 @@
         <v>3</v>
       </c>
       <c r="C10" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,3,10,10),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2239,27 +2525,35 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,3,11,10),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="11">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>11</v>
+      <c r="C12" s="11">
+        <v>12</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,3,12,10),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2267,13 +2561,17 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,3,13,10),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2281,13 +2579,17 @@
         <v>3</v>
       </c>
       <c r="C14" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>(13,3,14,10),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2295,27 +2597,35 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>(14,3,15,10),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="11">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>15</v>
+      <c r="C16" s="11">
+        <v>16</v>
       </c>
       <c r="D16" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,3,16,10),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2323,13 +2633,17 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>(16,3,17,10),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2337,13 +2651,17 @@
         <v>3</v>
       </c>
       <c r="C18" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>(17,3,18,10),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2351,27 +2669,35 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>(18,3,19,10),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="11">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>19</v>
+      <c r="C20" s="11">
+        <v>20</v>
       </c>
       <c r="D20" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>(19,3,20,10),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2379,13 +2705,17 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>(20,3,21,10),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2393,13 +2723,17 @@
         <v>3</v>
       </c>
       <c r="C22" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>(21,3,22,10),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2407,27 +2741,35 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>(22,3,23,10),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="11">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>23</v>
+      <c r="C24" s="11">
+        <v>24</v>
       </c>
       <c r="D24" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>(23,3,24,10),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2435,13 +2777,17 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>(24,3,25,10),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2449,13 +2795,17 @@
         <v>3</v>
       </c>
       <c r="C26" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>(25,3,26,10),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2463,27 +2813,35 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>(26,3,27,10),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="11">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>27</v>
+      <c r="C28" s="11">
+        <v>28</v>
       </c>
       <c r="D28" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>(27,3,28,10),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2491,13 +2849,17 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>(28,3,29,10),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2505,13 +2867,17 @@
         <v>3</v>
       </c>
       <c r="C30" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>(29,3,30,10),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2519,27 +2885,35 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>(30,3,31,10),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="11">
         <v>3</v>
       </c>
-      <c r="C32">
-        <v>31</v>
+      <c r="C32" s="11">
+        <v>32</v>
       </c>
       <c r="D32" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>(31,3,32,10),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2547,13 +2921,17 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>(32,3,33,10),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2561,13 +2939,17 @@
         <v>3</v>
       </c>
       <c r="C34" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>(33,3,34,10),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2575,27 +2957,35 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>(34,3,35,10),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="11">
         <v>3</v>
       </c>
-      <c r="C36">
-        <v>35</v>
+      <c r="C36" s="11">
+        <v>36</v>
       </c>
       <c r="D36" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>(35,3,36,10),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2603,13 +2993,17 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>(36,3,37,10),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -2617,13 +3011,17 @@
         <v>3</v>
       </c>
       <c r="C38" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>(37,3,38,10),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2631,27 +3029,35 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>(38,3,39,10),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
       </c>
-      <c r="C40">
-        <v>39</v>
+      <c r="C40" s="11">
+        <v>40</v>
       </c>
       <c r="D40" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>(39,3,40,10),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2659,13 +3065,17 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D41" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>(40,3,41,10),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -2673,13 +3083,17 @@
         <v>3</v>
       </c>
       <c r="C42" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>(41,3,42,10),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2687,27 +3101,35 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>(42,3,43,10),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
       </c>
-      <c r="C44">
-        <v>43</v>
+      <c r="C44" s="11">
+        <v>44</v>
       </c>
       <c r="D44" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>(43,3,44,10),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2715,13 +3137,17 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D45" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>(44,3,45,10),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -2729,13 +3155,17 @@
         <v>3</v>
       </c>
       <c r="C46" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>(45,3,46,10),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2743,27 +3173,35 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>(46,3,47,10),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="11">
         <v>3</v>
       </c>
-      <c r="C48">
-        <v>47</v>
+      <c r="C48" s="11">
+        <v>48</v>
       </c>
       <c r="D48" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>(47,3,48,10),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2771,13 +3209,17 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D49" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>(48,3,49,10),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -2785,13 +3227,17 @@
         <v>3</v>
       </c>
       <c r="C50" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D50" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>(49,3,50,10),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2799,10 +3245,14 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D51" s="11">
         <v>10</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>(50,3,51,10),</v>
       </c>
     </row>
   </sheetData>

--- a/assets/datamentah.xlsx
+++ b/assets/datamentah.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="7830" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="7830" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="bank" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="stok_gerai" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="clear" sheetId="4" r:id="rId7"/>
+    <sheet name="produk" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="208">
   <si>
     <t>id_bank</t>
   </si>
@@ -564,6 +565,96 @@
   </si>
   <si>
     <t>ervanpangestu@gmail.com</t>
+  </si>
+  <si>
+    <t>Dovpo MVV 2 Panda Edition</t>
+  </si>
+  <si>
+    <t>Vapor Terbaik</t>
+  </si>
+  <si>
+    <t>Joyetech Exceed Grip</t>
+  </si>
+  <si>
+    <t>Upods Cube</t>
+  </si>
+  <si>
+    <t>Vaporite Mecha Kit 22mm</t>
+  </si>
+  <si>
+    <t>HexOhm v3.0 30 Amp Anodized by Craving Vapor</t>
+  </si>
+  <si>
+    <t>JUUL</t>
+  </si>
+  <si>
+    <t>SMOK Fetch Mini</t>
+  </si>
+  <si>
+    <t>Art Mod by Preva x Owlexandrea</t>
+  </si>
+  <si>
+    <t>Joyetech Teros Zoo Pod</t>
+  </si>
+  <si>
+    <t>Uwell Caliburn</t>
+  </si>
+  <si>
+    <t>Teslacigs Terminator VAPE</t>
+  </si>
+  <si>
+    <t>Smok RPM 40</t>
+  </si>
+  <si>
+    <t>Eleaf iStick Pico (75 W) Authentic</t>
+  </si>
+  <si>
+    <t>Suorin Air</t>
+  </si>
+  <si>
+    <t>AugVape Druga Squonk</t>
+  </si>
+  <si>
+    <t>Mecha Kit AV Timekeeper Revolver Kit</t>
+  </si>
+  <si>
+    <t>Smoant Charon TS (218 W)</t>
+  </si>
+  <si>
+    <t>GeekVape Aegis Legend</t>
+  </si>
+  <si>
+    <t>Voopoo Drag 2 Refresh Edition productnation</t>
+  </si>
+  <si>
+    <t>ervan</t>
+  </si>
+  <si>
+    <t>200                                 </t>
+  </si>
+  <si>
+    <t>2022-07-17JANE.png</t>
+  </si>
+  <si>
+    <t>nama_produk</t>
+  </si>
+  <si>
+    <t>id_kategori</t>
+  </si>
+  <si>
+    <t>stok_produk</t>
+  </si>
+  <si>
+    <t>`status_produk</t>
+  </si>
+  <si>
+    <t>deskripsi</t>
+  </si>
+  <si>
+    <t>gambar</t>
+  </si>
+  <si>
+    <t>harga_produk</t>
   </si>
 </sst>
 </file>
@@ -616,7 +707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +723,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,6 +782,10 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1065,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H2:H7" si="0">"("&amp;A4&amp;",'"&amp;B4&amp;"',"&amp;C4&amp;",'"&amp;D4&amp;"','"&amp;E4&amp;"',"&amp;F4&amp;",'"&amp;G4&amp;"'),"</f>
+        <f t="shared" ref="H4:H7" si="0">"("&amp;A4&amp;",'"&amp;B4&amp;"',"&amp;C4&amp;",'"&amp;D4&amp;"','"&amp;E4&amp;"',"&amp;F4&amp;",'"&amp;G4&amp;"'),"</f>
         <v>(3,'PT BANK NEGARA INDONESIA (PERSERO) Tbk',5709506,'','RAJA VAPOR',1,''),</v>
       </c>
     </row>
@@ -1279,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3278,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3674,4 +3775,1547 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60">
+      <c r="A2" s="14">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="14">
+        <v>20000</v>
+      </c>
+      <c r="I2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45">
+      <c r="A3" s="14">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>20</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="14">
+        <v>30000</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="14">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="14">
+        <v>40000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="14">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="14">
+        <v>50000</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105">
+      <c r="A6" s="14">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="14">
+        <v>60000</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="14">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="14">
+        <v>70000</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45">
+      <c r="A8" s="14">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="14">
+        <v>80000</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75">
+      <c r="A9" s="14">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="14">
+        <v>90000</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="14">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" s="14">
+        <v>100000</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="14">
+        <v>11</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="14">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="14">
+        <v>110000</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45">
+      <c r="A12" s="14">
+        <v>12</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="14">
+        <v>120000</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="14">
+        <v>13</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>20</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="14">
+        <v>130000</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="90">
+      <c r="A14" s="14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="14">
+        <v>140000</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="14">
+        <v>15</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="14">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14">
+        <v>20</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="14">
+        <v>150000</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45">
+      <c r="A16" s="14">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="14">
+        <v>5</v>
+      </c>
+      <c r="D16" s="14">
+        <v>20</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="14">
+        <v>160000</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="90">
+      <c r="A17" s="14">
+        <v>17</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>20</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="14">
+        <v>170000</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60">
+      <c r="A18" s="14">
+        <v>18</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <v>20</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="14">
+        <v>20000</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45">
+      <c r="A19" s="14">
+        <v>19</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14">
+        <v>20</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="14">
+        <v>180000</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90">
+      <c r="A20" s="14">
+        <v>20</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="14">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14">
+        <v>20</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="14">
+        <v>190000</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60">
+      <c r="A21" s="14">
+        <v>21</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="14">
+        <v>5</v>
+      </c>
+      <c r="D21" s="14">
+        <v>20</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="14">
+        <v>200000</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45">
+      <c r="A22" s="14">
+        <v>22</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>20</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="14">
+        <v>210000</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="14">
+        <v>23</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="14">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14">
+        <v>20</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="14">
+        <v>220000</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60">
+      <c r="A24" s="14">
+        <v>24</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="14">
+        <v>3</v>
+      </c>
+      <c r="D24" s="14">
+        <v>20</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="14">
+        <v>230000</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="105">
+      <c r="A25" s="14">
+        <v>25</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4</v>
+      </c>
+      <c r="D25" s="14">
+        <v>20</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="14">
+        <v>240000</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="14">
+        <v>26</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="14">
+        <v>5</v>
+      </c>
+      <c r="D26" s="14">
+        <v>20</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="14">
+        <v>250000</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45">
+      <c r="A27" s="14">
+        <v>27</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>20</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="14">
+        <v>260000</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="75">
+      <c r="A28" s="14">
+        <v>28</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="14">
+        <v>2</v>
+      </c>
+      <c r="D28" s="14">
+        <v>20</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" s="14">
+        <v>270000</v>
+      </c>
+      <c r="I28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45">
+      <c r="A29" s="14">
+        <v>29</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="14">
+        <v>3</v>
+      </c>
+      <c r="D29" s="14">
+        <v>20</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="14">
+        <v>280000</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="14">
+        <v>30</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="14">
+        <v>4</v>
+      </c>
+      <c r="D30" s="14">
+        <v>20</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="14">
+        <v>290000</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45">
+      <c r="A31" s="14">
+        <v>31</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="14">
+        <v>5</v>
+      </c>
+      <c r="D31" s="14">
+        <v>20</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="14">
+        <v>300000</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="14">
+        <v>32</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14">
+        <v>20</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="14">
+        <v>310000</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="90">
+      <c r="A33" s="14">
+        <v>33</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="14">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14">
+        <v>20</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="14">
+        <v>320000</v>
+      </c>
+      <c r="I33" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="14">
+        <v>34</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="14">
+        <v>3</v>
+      </c>
+      <c r="D34" s="14">
+        <v>20</v>
+      </c>
+      <c r="E34" s="14">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="14">
+        <v>340000</v>
+      </c>
+      <c r="I34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45">
+      <c r="A35" s="14">
+        <v>35</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="14">
+        <v>4</v>
+      </c>
+      <c r="D35" s="14">
+        <v>20</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="14">
+        <v>350000</v>
+      </c>
+      <c r="I35" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="90">
+      <c r="A36" s="14">
+        <v>36</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="14">
+        <v>5</v>
+      </c>
+      <c r="D36" s="14">
+        <v>20</v>
+      </c>
+      <c r="E36" s="14">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H36" s="14">
+        <v>360000</v>
+      </c>
+      <c r="I36" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60">
+      <c r="A37" s="14">
+        <v>37</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14">
+        <v>20</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="14">
+        <v>370000</v>
+      </c>
+      <c r="I37" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38" s="14">
+        <v>38</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="14">
+        <v>2</v>
+      </c>
+      <c r="D38" s="14">
+        <v>20</v>
+      </c>
+      <c r="E38" s="14">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H38" s="14">
+        <v>380000</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="90">
+      <c r="A39" s="14">
+        <v>39</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="14">
+        <v>3</v>
+      </c>
+      <c r="D39" s="14">
+        <v>20</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" s="14">
+        <v>380000</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="60">
+      <c r="A40" s="14">
+        <v>40</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="14">
+        <v>4</v>
+      </c>
+      <c r="D40" s="14">
+        <v>20</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="14">
+        <v>390000</v>
+      </c>
+      <c r="I40" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45">
+      <c r="A41" s="14">
+        <v>41</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="14">
+        <v>5</v>
+      </c>
+      <c r="D41" s="14">
+        <v>20</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" s="14">
+        <v>400000</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30">
+      <c r="A42" s="14">
+        <v>42</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1</v>
+      </c>
+      <c r="D42" s="14">
+        <v>20</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="14">
+        <v>410000</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="60">
+      <c r="A43" s="14">
+        <v>43</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="14">
+        <v>2</v>
+      </c>
+      <c r="D43" s="14">
+        <v>20</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="14">
+        <v>420000</v>
+      </c>
+      <c r="I43" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="105">
+      <c r="A44" s="14">
+        <v>44</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="14">
+        <v>3</v>
+      </c>
+      <c r="D44" s="14">
+        <v>20</v>
+      </c>
+      <c r="E44" s="14">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="14">
+        <v>430000</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30">
+      <c r="A45" s="14">
+        <v>45</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="14">
+        <v>4</v>
+      </c>
+      <c r="D45" s="14">
+        <v>20</v>
+      </c>
+      <c r="E45" s="14">
+        <v>1</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="14">
+        <v>440000</v>
+      </c>
+      <c r="I45" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="45">
+      <c r="A46" s="14">
+        <v>46</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="14">
+        <v>5</v>
+      </c>
+      <c r="D46" s="14">
+        <v>20</v>
+      </c>
+      <c r="E46" s="14">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="14">
+        <v>450000</v>
+      </c>
+      <c r="I46" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75">
+      <c r="A47" s="14">
+        <v>47</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1</v>
+      </c>
+      <c r="D47" s="14">
+        <v>20</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="14">
+        <v>460000</v>
+      </c>
+      <c r="I47" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45">
+      <c r="A48" s="14">
+        <v>48</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="14">
+        <v>2</v>
+      </c>
+      <c r="D48" s="14">
+        <v>20</v>
+      </c>
+      <c r="E48" s="14">
+        <v>1</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="14">
+        <v>470000</v>
+      </c>
+      <c r="I48" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30">
+      <c r="A49" s="14">
+        <v>49</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="14">
+        <v>3</v>
+      </c>
+      <c r="D49" s="14">
+        <v>20</v>
+      </c>
+      <c r="E49" s="14">
+        <v>1</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="14">
+        <v>480000</v>
+      </c>
+      <c r="I49" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45">
+      <c r="A50" s="14">
+        <v>50</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="14">
+        <v>4</v>
+      </c>
+      <c r="D50" s="14">
+        <v>20</v>
+      </c>
+      <c r="E50" s="14">
+        <v>1</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="14">
+        <v>490000</v>
+      </c>
+      <c r="I50" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="14">
+        <v>51</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="14">
+        <v>5</v>
+      </c>
+      <c r="D51" s="14">
+        <v>20</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="14">
+        <v>500000</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45">
+      <c r="A52" s="14">
+        <v>53</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="14">
+        <v>2</v>
+      </c>
+      <c r="D52" s="14">
+        <v>200</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" s="14">
+        <v>200</v>
+      </c>
+      <c r="I52" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/datamentah.xlsx
+++ b/assets/datamentah.xlsx
@@ -21,7 +21,7 @@
     <sheet name="clear" sheetId="4" r:id="rId7"/>
     <sheet name="produk" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="227">
   <si>
     <t>id_bank</t>
   </si>
@@ -633,9 +633,6 @@
     <t>200                                 </t>
   </si>
   <si>
-    <t>2022-07-17JANE.png</t>
-  </si>
-  <si>
     <t>nama_produk</t>
   </si>
   <si>
@@ -655,12 +652,72 @@
   </si>
   <si>
     <t>harga_produk</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dovpo panda.jpg</t>
+  </si>
+  <si>
+    <t>aegis legend.jpg</t>
+  </si>
+  <si>
+    <t>caliburn.jpg</t>
+  </si>
+  <si>
+    <t>druga squonk.jpg</t>
+  </si>
+  <si>
+    <t>exceed grip.jpg</t>
+  </si>
+  <si>
+    <t>hexohm v3.jpg</t>
+  </si>
+  <si>
+    <t>juul.jpg</t>
+  </si>
+  <si>
+    <t>smok fetch mini.jpg</t>
+  </si>
+  <si>
+    <t>pico75watt.jpg</t>
+  </si>
+  <si>
+    <t>smoant tc 218.jpg</t>
+  </si>
+  <si>
+    <t>smok rpm40.jpg</t>
+  </si>
+  <si>
+    <t>suorinair.jpg</t>
+  </si>
+  <si>
+    <t>tesla terminator.jpg</t>
+  </si>
+  <si>
+    <t>vaporite mecha kit 22.jpg</t>
+  </si>
+  <si>
+    <t>voopoo drag 2.jpg</t>
+  </si>
+  <si>
+    <t>zoo pod.jpg</t>
+  </si>
+  <si>
+    <t>Upods Cube,jpg</t>
+  </si>
+  <si>
+    <t>Art Mod by Preva x Owlexandrea.jpg</t>
+  </si>
+  <si>
+    <t>Mecha Kit AV Timekeeper Revolver Kit.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -3779,10 +3836,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3792,40 +3849,41 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="15" t="s">
         <v>173</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60">
+    <row r="2" spans="1:11" ht="45">
       <c r="A2" s="14">
         <v>2</v>
       </c>
@@ -3845,7 +3903,7 @@
         <v>179</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="H2" s="14">
         <v>20000</v>
@@ -3853,8 +3911,12 @@
       <c r="I2" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="45">
+      <c r="K2" t="str">
+        <f>"UPDATE produk SET gambar = '"&amp;G2&amp;"' WHERE id_produk = "&amp;A2&amp;";"</f>
+        <v>UPDATE produk SET gambar = 'dovpo panda.jpg' WHERE id_produk = 2;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="14">
         <v>3</v>
       </c>
@@ -3871,10 +3933,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="H3" s="14">
         <v>30000</v>
@@ -3882,8 +3944,12 @@
       <c r="I3" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K30" si="0">"UPDATE produk SET gambar = '"&amp;G3&amp;"' WHERE id_produk = "&amp;A3&amp;";"</f>
+        <v>UPDATE produk SET gambar = 'exceed grip.jpg' WHERE id_produk = 3;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="14">
         <v>4</v>
       </c>
@@ -3903,7 +3969,7 @@
         <v>179</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="H4" s="14">
         <v>40000</v>
@@ -3911,8 +3977,12 @@
       <c r="I4" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="60">
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'Upods Cube,jpg' WHERE id_produk = 4;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -3932,7 +4002,7 @@
         <v>179</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="H5" s="14">
         <v>50000</v>
@@ -3940,8 +4010,12 @@
       <c r="I5" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="105">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'vaporite mecha kit 22.jpg' WHERE id_produk = 5;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75">
       <c r="A6" s="14">
         <v>6</v>
       </c>
@@ -3961,7 +4035,7 @@
         <v>179</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="H6" s="14">
         <v>60000</v>
@@ -3969,8 +4043,12 @@
       <c r="I6" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'hexohm v3.jpg' WHERE id_produk = 6;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -3990,7 +4068,7 @@
         <v>179</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="H7" s="14">
         <v>70000</v>
@@ -3998,8 +4076,12 @@
       <c r="I7" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="45">
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'juul.jpg' WHERE id_produk = 7;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="14">
         <v>8</v>
       </c>
@@ -4019,7 +4101,7 @@
         <v>179</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="H8" s="14">
         <v>80000</v>
@@ -4027,8 +4109,12 @@
       <c r="I8" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="75">
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'smok fetch mini.jpg' WHERE id_produk = 8;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60">
       <c r="A9" s="14">
         <v>9</v>
       </c>
@@ -4048,7 +4134,7 @@
         <v>179</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="H9" s="14">
         <v>90000</v>
@@ -4056,8 +4142,12 @@
       <c r="I9" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="45">
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'Art Mod by Preva x Owlexandrea.jpg' WHERE id_produk = 9;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45">
       <c r="A10" s="14">
         <v>10</v>
       </c>
@@ -4077,7 +4167,7 @@
         <v>179</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="H10" s="14">
         <v>100000</v>
@@ -4085,8 +4175,12 @@
       <c r="I10" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="30">
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'zoo pod.jpg' WHERE id_produk = 10;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="14">
         <v>11</v>
       </c>
@@ -4106,7 +4200,7 @@
         <v>179</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="H11" s="14">
         <v>110000</v>
@@ -4114,8 +4208,12 @@
       <c r="I11" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="45">
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'caliburn.jpg' WHERE id_produk = 11;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45">
       <c r="A12" s="14">
         <v>12</v>
       </c>
@@ -4135,7 +4233,7 @@
         <v>179</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="H12" s="14">
         <v>120000</v>
@@ -4143,8 +4241,12 @@
       <c r="I12" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="30">
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'tesla terminator.jpg' WHERE id_produk = 12;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30">
       <c r="A13" s="14">
         <v>13</v>
       </c>
@@ -4164,7 +4266,7 @@
         <v>179</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="H13" s="14">
         <v>130000</v>
@@ -4172,8 +4274,12 @@
       <c r="I13" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="90">
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'smok rpm40.jpg' WHERE id_produk = 13;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="14">
         <v>14</v>
       </c>
@@ -4193,7 +4299,7 @@
         <v>179</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="H14" s="14">
         <v>140000</v>
@@ -4201,8 +4307,12 @@
       <c r="I14" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="30">
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'pico75watt.jpg' WHERE id_produk = 14;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="14">
         <v>15</v>
       </c>
@@ -4222,7 +4332,7 @@
         <v>179</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="H15" s="14">
         <v>150000</v>
@@ -4230,8 +4340,12 @@
       <c r="I15" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="45">
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'suorinair.jpg' WHERE id_produk = 15;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45">
       <c r="A16" s="14">
         <v>16</v>
       </c>
@@ -4251,7 +4365,7 @@
         <v>179</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="H16" s="14">
         <v>160000</v>
@@ -4259,8 +4373,12 @@
       <c r="I16" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="90">
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'druga squonk.jpg' WHERE id_produk = 16;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -4280,7 +4398,7 @@
         <v>179</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="H17" s="14">
         <v>170000</v>
@@ -4288,8 +4406,12 @@
       <c r="I17" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="60">
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'Mecha Kit AV Timekeeper Revolver Kit.jpg' WHERE id_produk = 17;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -4309,7 +4431,7 @@
         <v>179</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="H18" s="14">
         <v>20000</v>
@@ -4317,8 +4439,12 @@
       <c r="I18" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="45">
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'smoant tc 218.jpg' WHERE id_produk = 18;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30">
       <c r="A19" s="14">
         <v>19</v>
       </c>
@@ -4338,7 +4464,7 @@
         <v>179</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="H19" s="14">
         <v>180000</v>
@@ -4346,8 +4472,12 @@
       <c r="I19" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="90">
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'aegis legend.jpg' WHERE id_produk = 19;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75">
       <c r="A20" s="14">
         <v>20</v>
       </c>
@@ -4367,7 +4497,7 @@
         <v>179</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="H20" s="14">
         <v>190000</v>
@@ -4375,8 +4505,12 @@
       <c r="I20" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="60">
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'voopoo drag 2.jpg' WHERE id_produk = 20;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30">
       <c r="A21" s="14">
         <v>21</v>
       </c>
@@ -4395,9 +4529,7 @@
       <c r="F21" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>178</v>
-      </c>
+      <c r="G21" s="14"/>
       <c r="H21" s="14">
         <v>200000</v>
       </c>
@@ -4405,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="45">
+    <row r="22" spans="1:11" ht="30">
       <c r="A22" s="14">
         <v>22</v>
       </c>
@@ -4424,9 +4556,7 @@
       <c r="F22" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>180</v>
-      </c>
+      <c r="G22" s="14"/>
       <c r="H22" s="14">
         <v>210000</v>
       </c>
@@ -4434,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:11" ht="30">
       <c r="A23" s="14">
         <v>23</v>
       </c>
@@ -4453,9 +4583,7 @@
       <c r="F23" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="G23" s="14"/>
       <c r="H23" s="14">
         <v>220000</v>
       </c>
@@ -4463,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="60">
+    <row r="24" spans="1:11" ht="45">
       <c r="A24" s="14">
         <v>24</v>
       </c>
@@ -4482,9 +4610,7 @@
       <c r="F24" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>182</v>
-      </c>
+      <c r="G24" s="14"/>
       <c r="H24" s="14">
         <v>230000</v>
       </c>
@@ -4492,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="105">
+    <row r="25" spans="1:11" ht="75">
       <c r="A25" s="14">
         <v>25</v>
       </c>
@@ -4511,9 +4637,7 @@
       <c r="F25" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>183</v>
-      </c>
+      <c r="G25" s="14"/>
       <c r="H25" s="14">
         <v>240000</v>
       </c>
@@ -4521,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30">
+    <row r="26" spans="1:11" ht="30">
       <c r="A26" s="14">
         <v>26</v>
       </c>
@@ -4540,9 +4664,7 @@
       <c r="F26" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>184</v>
-      </c>
+      <c r="G26" s="14"/>
       <c r="H26" s="14">
         <v>250000</v>
       </c>
@@ -4550,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="45">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="14">
         <v>27</v>
       </c>
@@ -4569,9 +4691,7 @@
       <c r="F27" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>185</v>
-      </c>
+      <c r="G27" s="14"/>
       <c r="H27" s="14">
         <v>260000</v>
       </c>
@@ -4579,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="75">
+    <row r="28" spans="1:11" ht="45">
       <c r="A28" s="14">
         <v>28</v>
       </c>
@@ -4598,9 +4718,7 @@
       <c r="F28" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>186</v>
-      </c>
+      <c r="G28" s="14"/>
       <c r="H28" s="14">
         <v>270000</v>
       </c>
@@ -4608,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="45">
+    <row r="29" spans="1:11" ht="45">
       <c r="A29" s="14">
         <v>29</v>
       </c>
@@ -4627,9 +4745,7 @@
       <c r="F29" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>187</v>
-      </c>
+      <c r="G29" s="14"/>
       <c r="H29" s="14">
         <v>280000</v>
       </c>
@@ -4637,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:11" ht="30">
       <c r="A30" s="14">
         <v>30</v>
       </c>
@@ -4657,7 +4773,7 @@
         <v>179</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="H30" s="14">
         <v>290000</v>
@@ -4665,8 +4781,12 @@
       <c r="I30" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="45">
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'caliburn.jpg' WHERE id_produk = 30;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45">
       <c r="A31" s="14">
         <v>31</v>
       </c>
@@ -4685,9 +4805,7 @@
       <c r="F31" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>189</v>
-      </c>
+      <c r="G31" s="14"/>
       <c r="H31" s="14">
         <v>300000</v>
       </c>
@@ -4695,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30">
+    <row r="32" spans="1:11" ht="30">
       <c r="A32" s="14">
         <v>32</v>
       </c>
@@ -4714,9 +4832,7 @@
       <c r="F32" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G32" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="G32" s="14"/>
       <c r="H32" s="14">
         <v>310000</v>
       </c>
@@ -4724,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="90">
+    <row r="33" spans="1:9" ht="45">
       <c r="A33" s="14">
         <v>33</v>
       </c>
@@ -4743,9 +4859,7 @@
       <c r="F33" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>191</v>
-      </c>
+      <c r="G33" s="14"/>
       <c r="H33" s="14">
         <v>320000</v>
       </c>
@@ -4772,9 +4886,7 @@
       <c r="F34" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>192</v>
-      </c>
+      <c r="G34" s="14"/>
       <c r="H34" s="14">
         <v>340000</v>
       </c>
@@ -4782,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="45">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="14">
         <v>35</v>
       </c>
@@ -4801,9 +4913,7 @@
       <c r="F35" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>193</v>
-      </c>
+      <c r="G35" s="14"/>
       <c r="H35" s="14">
         <v>350000</v>
       </c>
@@ -4811,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="90">
+    <row r="36" spans="1:9" ht="45">
       <c r="A36" s="14">
         <v>36</v>
       </c>
@@ -4830,9 +4940,7 @@
       <c r="F36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>194</v>
-      </c>
+      <c r="G36" s="14"/>
       <c r="H36" s="14">
         <v>360000</v>
       </c>
@@ -4840,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="60">
+    <row r="37" spans="1:9" ht="45">
       <c r="A37" s="14">
         <v>37</v>
       </c>
@@ -4859,9 +4967,7 @@
       <c r="F37" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>195</v>
-      </c>
+      <c r="G37" s="14"/>
       <c r="H37" s="14">
         <v>370000</v>
       </c>
@@ -4869,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="45">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="14">
         <v>38</v>
       </c>
@@ -4888,9 +4994,7 @@
       <c r="F38" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>196</v>
-      </c>
+      <c r="G38" s="14"/>
       <c r="H38" s="14">
         <v>380000</v>
       </c>
@@ -4898,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="90">
+    <row r="39" spans="1:9" ht="75">
       <c r="A39" s="14">
         <v>39</v>
       </c>
@@ -4917,9 +5021,7 @@
       <c r="F39" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>197</v>
-      </c>
+      <c r="G39" s="14"/>
       <c r="H39" s="14">
         <v>380000</v>
       </c>
@@ -4927,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="60">
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="14">
         <v>40</v>
       </c>
@@ -4946,9 +5048,7 @@
       <c r="F40" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>178</v>
-      </c>
+      <c r="G40" s="14"/>
       <c r="H40" s="14">
         <v>390000</v>
       </c>
@@ -4956,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="45">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" s="14">
         <v>41</v>
       </c>
@@ -4975,9 +5075,7 @@
       <c r="F41" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>180</v>
-      </c>
+      <c r="G41" s="14"/>
       <c r="H41" s="14">
         <v>400000</v>
       </c>
@@ -5004,9 +5102,7 @@
       <c r="F42" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="G42" s="14"/>
       <c r="H42" s="14">
         <v>410000</v>
       </c>
@@ -5014,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="60">
+    <row r="43" spans="1:9" ht="45">
       <c r="A43" s="14">
         <v>43</v>
       </c>
@@ -5033,9 +5129,7 @@
       <c r="F43" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>182</v>
-      </c>
+      <c r="G43" s="14"/>
       <c r="H43" s="14">
         <v>420000</v>
       </c>
@@ -5043,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="105">
+    <row r="44" spans="1:9" ht="75">
       <c r="A44" s="14">
         <v>44</v>
       </c>
@@ -5062,9 +5156,7 @@
       <c r="F44" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="14" t="s">
-        <v>183</v>
-      </c>
+      <c r="G44" s="14"/>
       <c r="H44" s="14">
         <v>430000</v>
       </c>
@@ -5091,9 +5183,7 @@
       <c r="F45" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>184</v>
-      </c>
+      <c r="G45" s="14"/>
       <c r="H45" s="14">
         <v>440000</v>
       </c>
@@ -5101,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="45">
+    <row r="46" spans="1:9" ht="30">
       <c r="A46" s="14">
         <v>46</v>
       </c>
@@ -5120,9 +5210,7 @@
       <c r="F46" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>185</v>
-      </c>
+      <c r="G46" s="14"/>
       <c r="H46" s="14">
         <v>450000</v>
       </c>
@@ -5130,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="75">
+    <row r="47" spans="1:9" ht="45">
       <c r="A47" s="14">
         <v>47</v>
       </c>
@@ -5149,9 +5237,7 @@
       <c r="F47" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G47" s="14" t="s">
-        <v>186</v>
-      </c>
+      <c r="G47" s="14"/>
       <c r="H47" s="14">
         <v>460000</v>
       </c>
@@ -5178,9 +5264,7 @@
       <c r="F48" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="14" t="s">
-        <v>187</v>
-      </c>
+      <c r="G48" s="14"/>
       <c r="H48" s="14">
         <v>470000</v>
       </c>
@@ -5207,9 +5291,7 @@
       <c r="F49" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>188</v>
-      </c>
+      <c r="G49" s="14"/>
       <c r="H49" s="14">
         <v>480000</v>
       </c>
@@ -5236,9 +5318,7 @@
       <c r="F50" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>189</v>
-      </c>
+      <c r="G50" s="14"/>
       <c r="H50" s="14">
         <v>490000</v>
       </c>
@@ -5265,9 +5345,7 @@
       <c r="F51" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="G51" s="14"/>
       <c r="H51" s="14">
         <v>500000</v>
       </c>
@@ -5294,9 +5372,7 @@
       <c r="F52" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>200</v>
-      </c>
+      <c r="G52" s="14"/>
       <c r="H52" s="14">
         <v>200</v>
       </c>

--- a/assets/datamentah.xlsx
+++ b/assets/datamentah.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="7830" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="7830" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="bank" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="clear" sheetId="4" r:id="rId7"/>
     <sheet name="produk" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="227">
   <si>
     <t>id_bank</t>
   </si>
@@ -717,7 +718,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -3838,7 +3839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3883,7 +3884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45">
+    <row r="2" spans="1:11" ht="30">
       <c r="A2" s="14">
         <v>2</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>UPDATE produk SET gambar = 'suorinair.jpg' WHERE id_produk = 15;</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45">
+    <row r="16" spans="1:11" ht="30">
       <c r="A16" s="14">
         <v>16</v>
       </c>
@@ -5394,4 +5395,599 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60">
+      <c r="A2" s="14">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="14">
+        <v>20000</v>
+      </c>
+      <c r="I2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45">
+      <c r="A3" s="14">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>20</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="14">
+        <v>30000</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="14">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="14">
+        <v>40000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="14">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="14">
+        <v>50000</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105">
+      <c r="A6" s="14">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="14">
+        <v>60000</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="14">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="14">
+        <v>70000</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45">
+      <c r="A8" s="14">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="14">
+        <v>80000</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75">
+      <c r="A9" s="14">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="14">
+        <v>90000</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="14">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="14">
+        <v>100000</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="14">
+        <v>11</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="14">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="14">
+        <v>110000</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45">
+      <c r="A12" s="14">
+        <v>12</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="14">
+        <v>120000</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45">
+      <c r="A13" s="14">
+        <v>13</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>20</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="14">
+        <v>130000</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="90">
+      <c r="A14" s="14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="14">
+        <v>140000</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="14">
+        <v>15</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="14">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14">
+        <v>20</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="14">
+        <v>150000</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45">
+      <c r="A16" s="14">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="14">
+        <v>5</v>
+      </c>
+      <c r="D16" s="14">
+        <v>20</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="14">
+        <v>160000</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="90">
+      <c r="A17" s="14">
+        <v>17</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>20</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="14">
+        <v>170000</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60">
+      <c r="A18" s="14">
+        <v>18</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <v>20</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="14">
+        <v>20000</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45">
+      <c r="A19" s="14">
+        <v>19</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14">
+        <v>20</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="14">
+        <v>180000</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90">
+      <c r="A20" s="14">
+        <v>20</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="14">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14">
+        <v>20</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" s="14">
+        <v>190000</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/datamentah.xlsx
+++ b/assets/datamentah.xlsx
@@ -20,8 +20,12 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="clear" sheetId="4" r:id="rId7"/>
     <sheet name="produk" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet2!$A$1:$I$52</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="238">
   <si>
     <t>id_bank</t>
   </si>
@@ -713,13 +717,161 @@
   </si>
   <si>
     <t>Mecha Kit AV Timekeeper Revolver Kit.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">baterai awt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>26650.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">baterai vrk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>18650.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">batre sony vtc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6a.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">FAQ funky </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>monkey.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">kapas holy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>fiber.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">kapas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>kendo.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>oatdrips.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>rda hadaly sxkjpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">rta fatality </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>25mm.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>tokyoman.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>upods cube.jpeg</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +915,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -813,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,6 +1000,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1297,6 +1456,601 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60">
+      <c r="A2" s="14">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="14">
+        <v>20000</v>
+      </c>
+      <c r="I2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45">
+      <c r="A3" s="14">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>20</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="14">
+        <v>30000</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="14">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="14">
+        <v>40000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="14">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="14">
+        <v>50000</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105">
+      <c r="A6" s="14">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="14">
+        <v>60000</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="14">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="14">
+        <v>70000</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45">
+      <c r="A8" s="14">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="14">
+        <v>80000</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75">
+      <c r="A9" s="14">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="14">
+        <v>90000</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="14">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="14">
+        <v>100000</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="14">
+        <v>11</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="14">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="14">
+        <v>110000</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45">
+      <c r="A12" s="14">
+        <v>12</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="14">
+        <v>120000</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45">
+      <c r="A13" s="14">
+        <v>13</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>20</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="14">
+        <v>130000</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="90">
+      <c r="A14" s="14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="14">
+        <v>140000</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="14">
+        <v>15</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="14">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14">
+        <v>20</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="14">
+        <v>150000</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45">
+      <c r="A16" s="14">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="14">
+        <v>5</v>
+      </c>
+      <c r="D16" s="14">
+        <v>20</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="14">
+        <v>160000</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="90">
+      <c r="A17" s="14">
+        <v>17</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>20</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="14">
+        <v>170000</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60">
+      <c r="A18" s="14">
+        <v>18</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <v>20</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="14">
+        <v>20000</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45">
+      <c r="A19" s="14">
+        <v>19</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14">
+        <v>20</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="14">
+        <v>180000</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90">
+      <c r="A20" s="14">
+        <v>20</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="14">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14">
+        <v>20</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" s="14">
+        <v>190000</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -3840,7 +4594,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3946,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K30" si="0">"UPDATE produk SET gambar = '"&amp;G3&amp;"' WHERE id_produk = "&amp;A3&amp;";"</f>
+        <f t="shared" ref="K2:K30" si="0">"UPDATE produk SET gambar = '"&amp;G3&amp;"' WHERE id_produk = "&amp;A3&amp;";"</f>
         <v>UPDATE produk SET gambar = 'exceed grip.jpg' WHERE id_produk = 3;</v>
       </c>
     </row>
@@ -5399,13 +6153,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
@@ -5436,7 +6194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60">
+    <row r="2" spans="1:9" ht="60" hidden="1">
       <c r="A2" s="14">
         <v>2</v>
       </c>
@@ -5465,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45">
+    <row r="3" spans="1:9" ht="45" hidden="1">
       <c r="A3" s="14">
         <v>3</v>
       </c>
@@ -5494,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" ht="30" hidden="1">
       <c r="A4" s="14">
         <v>4</v>
       </c>
@@ -5523,7 +6281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60">
+    <row r="5" spans="1:9" ht="60" hidden="1">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -5552,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="105">
+    <row r="6" spans="1:9" ht="105" hidden="1">
       <c r="A6" s="14">
         <v>6</v>
       </c>
@@ -5581,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="30" hidden="1">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -5610,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45">
+    <row r="8" spans="1:9" ht="45" hidden="1">
       <c r="A8" s="14">
         <v>8</v>
       </c>
@@ -5639,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75">
+    <row r="9" spans="1:9" ht="75" hidden="1">
       <c r="A9" s="14">
         <v>9</v>
       </c>
@@ -5668,7 +6426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45">
+    <row r="10" spans="1:9" ht="45" hidden="1">
       <c r="A10" s="14">
         <v>10</v>
       </c>
@@ -5697,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:9" ht="30" hidden="1">
       <c r="A11" s="14">
         <v>11</v>
       </c>
@@ -5726,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9" ht="45" hidden="1">
       <c r="A12" s="14">
         <v>12</v>
       </c>
@@ -5755,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45">
+    <row r="13" spans="1:9" ht="45" hidden="1">
       <c r="A13" s="14">
         <v>13</v>
       </c>
@@ -5784,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="90">
+    <row r="14" spans="1:9" ht="90" hidden="1">
       <c r="A14" s="14">
         <v>14</v>
       </c>
@@ -5813,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30">
+    <row r="15" spans="1:9" ht="30" hidden="1">
       <c r="A15" s="14">
         <v>15</v>
       </c>
@@ -5842,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45">
+    <row r="16" spans="1:9" ht="45" hidden="1">
       <c r="A16" s="14">
         <v>16</v>
       </c>
@@ -5871,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="90">
+    <row r="17" spans="1:12" ht="90" hidden="1">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -5900,7 +6658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="60">
+    <row r="18" spans="1:12" ht="60" hidden="1">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -5929,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45">
+    <row r="19" spans="1:12" ht="45" hidden="1">
       <c r="A19" s="14">
         <v>19</v>
       </c>
@@ -5958,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="90">
+    <row r="20" spans="1:12" ht="90" hidden="1">
       <c r="A20" s="14">
         <v>20</v>
       </c>
@@ -5987,7 +6745,978 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:12" ht="60">
+      <c r="A21" s="14">
+        <v>21</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="14">
+        <v>5</v>
+      </c>
+      <c r="D21" s="14">
+        <v>20</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="14">
+        <v>200000</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" ref="K21:L29" si="0">"UPDATE produk SET gambar = '"&amp;G2&amp;"' WHERE id_produk = "&amp;A21&amp;";"</f>
+        <v>UPDATE produk SET gambar = 'dovpo panda.jpg' WHERE id_produk = 21;</v>
+      </c>
+      <c r="L21" t="str">
+        <f>"UPDATE produk SET nama_produk = '"&amp;G21&amp;"' WHERE id_produk = "&amp;A21&amp;";"</f>
+        <v>UPDATE produk SET nama_produk = 'baterai awt 26650.jpg' WHERE id_produk = 21;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="45">
+      <c r="A22" s="14">
+        <v>22</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>20</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="H22" s="14">
+        <v>210000</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'exceed grip.jpg' WHERE id_produk = 22;</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" ref="L22:L31" si="1">"UPDATE produk SET nama_produk = '"&amp;G22&amp;"' WHERE id_produk = "&amp;A22&amp;";"</f>
+        <v>UPDATE produk SET nama_produk = 'baterai vrk 18650.jpg' WHERE id_produk = 22;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30">
+      <c r="A23" s="14">
+        <v>23</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="14">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14">
+        <v>20</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" s="14">
+        <v>220000</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'Upods Cube,jpg' WHERE id_produk = 23;</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE produk SET nama_produk = 'batre sony vtc 6a.jpg' WHERE id_produk = 23;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="60">
+      <c r="A24" s="14">
+        <v>24</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="14">
+        <v>3</v>
+      </c>
+      <c r="D24" s="14">
+        <v>20</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="14">
+        <v>230000</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'vaporite mecha kit 22.jpg' WHERE id_produk = 24;</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE produk SET nama_produk = 'FAQ funky monkey.jpg' WHERE id_produk = 24;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="105">
+      <c r="A25" s="14">
+        <v>25</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4</v>
+      </c>
+      <c r="D25" s="14">
+        <v>20</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" s="14">
+        <v>240000</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'hexohm v3.jpg' WHERE id_produk = 25;</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE produk SET nama_produk = 'kapas holy fiber.jpg' WHERE id_produk = 25;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30">
+      <c r="A26" s="14">
+        <v>26</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="14">
+        <v>5</v>
+      </c>
+      <c r="D26" s="14">
+        <v>20</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="14">
+        <v>250000</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'juul.jpg' WHERE id_produk = 26;</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE produk SET nama_produk = 'kapas kendo.jpg' WHERE id_produk = 26;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="45">
+      <c r="A27" s="14">
+        <v>27</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>20</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" s="14">
+        <v>260000</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'smok fetch mini.jpg' WHERE id_produk = 27;</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE produk SET nama_produk = 'oatdrips.jpg' WHERE id_produk = 27;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="75">
+      <c r="A28" s="14">
+        <v>28</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="14">
+        <v>2</v>
+      </c>
+      <c r="D28" s="14">
+        <v>20</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="14">
+        <v>270000</v>
+      </c>
+      <c r="I28" s="14">
+        <v>1</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'Art Mod by Preva x Owlexandrea.jpg' WHERE id_produk = 28;</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE produk SET nama_produk = 'rda hadaly sxkjpg' WHERE id_produk = 28;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="45">
+      <c r="A29" s="14">
+        <v>29</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="14">
+        <v>3</v>
+      </c>
+      <c r="D29" s="14">
+        <v>20</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" s="14">
+        <v>280000</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE produk SET gambar = 'zoo pod.jpg' WHERE id_produk = 29;</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE produk SET nama_produk = 'rta fatality 25mm.jpg' WHERE id_produk = 29;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" hidden="1">
+      <c r="A30" s="14">
+        <v>30</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="14">
+        <v>4</v>
+      </c>
+      <c r="D30" s="14">
+        <v>20</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="14">
+        <v>290000</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="45">
+      <c r="A31" s="14">
+        <v>31</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="14">
+        <v>5</v>
+      </c>
+      <c r="D31" s="14">
+        <v>20</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" s="14">
+        <v>300000</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+      <c r="K31" t="str">
+        <f>"UPDATE produk SET gambar = '"&amp;G12&amp;"' WHERE id_produk = "&amp;A31&amp;";"</f>
+        <v>UPDATE produk SET gambar = 'tesla terminator.jpg' WHERE id_produk = 31;</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE produk SET nama_produk = 'upods cube.jpeg' WHERE id_produk = 31;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30">
+      <c r="A32" s="14">
+        <v>32</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14">
+        <v>20</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14">
+        <v>310000</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="90">
+      <c r="A33" s="14">
+        <v>33</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="14">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14">
+        <v>20</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14">
+        <v>320000</v>
+      </c>
+      <c r="I33" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="14">
+        <v>34</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="14">
+        <v>3</v>
+      </c>
+      <c r="D34" s="14">
+        <v>20</v>
+      </c>
+      <c r="E34" s="14">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14">
+        <v>340000</v>
+      </c>
+      <c r="I34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45">
+      <c r="A35" s="14">
+        <v>35</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="14">
+        <v>4</v>
+      </c>
+      <c r="D35" s="14">
+        <v>20</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14">
+        <v>350000</v>
+      </c>
+      <c r="I35" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="90">
+      <c r="A36" s="14">
+        <v>36</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="14">
+        <v>5</v>
+      </c>
+      <c r="D36" s="14">
+        <v>20</v>
+      </c>
+      <c r="E36" s="14">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14">
+        <v>360000</v>
+      </c>
+      <c r="I36" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60">
+      <c r="A37" s="14">
+        <v>37</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14">
+        <v>20</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14">
+        <v>370000</v>
+      </c>
+      <c r="I37" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38" s="14">
+        <v>38</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="14">
+        <v>2</v>
+      </c>
+      <c r="D38" s="14">
+        <v>20</v>
+      </c>
+      <c r="E38" s="14">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14">
+        <v>380000</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="90">
+      <c r="A39" s="14">
+        <v>39</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="14">
+        <v>3</v>
+      </c>
+      <c r="D39" s="14">
+        <v>20</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14">
+        <v>380000</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="60">
+      <c r="A40" s="14">
+        <v>40</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="14">
+        <v>4</v>
+      </c>
+      <c r="D40" s="14">
+        <v>20</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14">
+        <v>390000</v>
+      </c>
+      <c r="I40" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45">
+      <c r="A41" s="14">
+        <v>41</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="14">
+        <v>5</v>
+      </c>
+      <c r="D41" s="14">
+        <v>20</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14">
+        <v>400000</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30">
+      <c r="A42" s="14">
+        <v>42</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1</v>
+      </c>
+      <c r="D42" s="14">
+        <v>20</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14">
+        <v>410000</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="60">
+      <c r="A43" s="14">
+        <v>43</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="14">
+        <v>2</v>
+      </c>
+      <c r="D43" s="14">
+        <v>20</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14">
+        <v>420000</v>
+      </c>
+      <c r="I43" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="105">
+      <c r="A44" s="14">
+        <v>44</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="14">
+        <v>3</v>
+      </c>
+      <c r="D44" s="14">
+        <v>20</v>
+      </c>
+      <c r="E44" s="14">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14">
+        <v>430000</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30">
+      <c r="A45" s="14">
+        <v>45</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="14">
+        <v>4</v>
+      </c>
+      <c r="D45" s="14">
+        <v>20</v>
+      </c>
+      <c r="E45" s="14">
+        <v>1</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14">
+        <v>440000</v>
+      </c>
+      <c r="I45" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="45">
+      <c r="A46" s="14">
+        <v>46</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="14">
+        <v>5</v>
+      </c>
+      <c r="D46" s="14">
+        <v>20</v>
+      </c>
+      <c r="E46" s="14">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14">
+        <v>450000</v>
+      </c>
+      <c r="I46" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75">
+      <c r="A47" s="14">
+        <v>47</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1</v>
+      </c>
+      <c r="D47" s="14">
+        <v>20</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14">
+        <v>460000</v>
+      </c>
+      <c r="I47" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45">
+      <c r="A48" s="14">
+        <v>48</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="14">
+        <v>2</v>
+      </c>
+      <c r="D48" s="14">
+        <v>20</v>
+      </c>
+      <c r="E48" s="14">
+        <v>1</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14">
+        <v>470000</v>
+      </c>
+      <c r="I48" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30">
+      <c r="A49" s="14">
+        <v>49</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="14">
+        <v>3</v>
+      </c>
+      <c r="D49" s="14">
+        <v>20</v>
+      </c>
+      <c r="E49" s="14">
+        <v>1</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14">
+        <v>480000</v>
+      </c>
+      <c r="I49" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45">
+      <c r="A50" s="14">
+        <v>50</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="14">
+        <v>4</v>
+      </c>
+      <c r="D50" s="14">
+        <v>20</v>
+      </c>
+      <c r="E50" s="14">
+        <v>1</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14">
+        <v>490000</v>
+      </c>
+      <c r="I50" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="14">
+        <v>51</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="14">
+        <v>5</v>
+      </c>
+      <c r="D51" s="14">
+        <v>20</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14">
+        <v>500000</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45">
+      <c r="A52" s="14">
+        <v>53</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="14">
+        <v>2</v>
+      </c>
+      <c r="D52" s="14">
+        <v>200</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14">
+        <v>200</v>
+      </c>
+      <c r="I52" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I52">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>